--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4695538-8100-A345-8C65-158E8D206691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0415E9A3-4AE3-134E-AB05-D2E3C156EE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="17540" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F5987F-4EA5-A743-B7E1-31C2243E87E9}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,10 +455,6 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>_xlfn.RANK.AVG(C2,C2:C13,1)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -467,10 +463,6 @@
       <c r="C3">
         <v>241.5</v>
       </c>
-      <c r="E3">
-        <f>_xlfn.RANK.AVG(C3,C2:C13,1)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -479,10 +471,6 @@
       <c r="C4">
         <v>489</v>
       </c>
-      <c r="E4">
-        <f>_xlfn.RANK.AVG(C4,C2:C13,1)</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -491,10 +479,6 @@
       <c r="C5">
         <v>743.5</v>
       </c>
-      <c r="E5">
-        <f>_xlfn.RANK.AVG(C5,C2:C13,1)</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -503,10 +487,6 @@
       <c r="C6">
         <v>770</v>
       </c>
-      <c r="E6">
-        <f>_xlfn.RANK.AVG(C6,C2:C13,1)</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -515,84 +495,138 @@
       <c r="C7">
         <v>1270</v>
       </c>
-      <c r="E7">
-        <f>_xlfn.RANK.AVG(C7,C2:C13,1)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>0.77</v>
+      </c>
       <c r="C8">
         <v>1423</v>
       </c>
+      <c r="D8">
+        <f>_xlfn.RANK.AVG(B8,$B$8:$B$12,1)</f>
+        <v>1</v>
+      </c>
       <c r="E8">
-        <f>_xlfn.RANK.AVG(C8,C2:C13,1)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(C8,C8:C12,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>(D8-E8)^2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4.0999999999999996</v>
       </c>
+      <c r="B9">
+        <v>0.78</v>
+      </c>
       <c r="C9">
         <v>1573.5</v>
       </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D12" si="0">_xlfn.RANK.AVG(B9,$B$8:$B$12,1)</f>
+        <v>2</v>
+      </c>
       <c r="E9">
-        <f>_xlfn.RANK.AVG(C9,C2:C13,1)</f>
-        <v>8</v>
+        <f>_xlfn.RANK.AVG(C9,$C$8:$C$12,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="1">(D9-E9)^2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4.2</v>
       </c>
+      <c r="B10">
+        <v>0.81</v>
+      </c>
       <c r="C10">
         <v>1849.5</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
       <c r="E10">
-        <f>_xlfn.RANK.AVG(C10,C2:C13,1)</f>
-        <v>9</v>
+        <f t="shared" ref="E10:E12" si="2">_xlfn.RANK.AVG(C10,$C$8:$C$12,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4.3</v>
       </c>
+      <c r="B11">
+        <v>0.81</v>
+      </c>
       <c r="C11">
         <v>1861.5</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
       <c r="E11">
-        <f>_xlfn.RANK.AVG(C11,C2:C13,1)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4.4000000000000004</v>
       </c>
+      <c r="B12">
+        <v>0.82</v>
+      </c>
       <c r="C12">
         <v>1991.5</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="E12">
-        <f>_xlfn.RANK.AVG(C12,C2:C13,1)</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4.5</v>
       </c>
-      <c r="B13">
-        <v>0.82</v>
-      </c>
       <c r="C13">
         <v>2206.5</v>
       </c>
-      <c r="E13">
-        <f>_xlfn.RANK.AVG(C13,C2:C13,1)</f>
-        <v>12</v>
+      <c r="F13">
+        <f>SUM(F8:F12)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f>1-((6*F13)/(125-5))</f>
+        <v>0.97499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0415E9A3-4AE3-134E-AB05-D2E3C156EE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E048DD-7E5B-DA40-92D6-B15E25FE406E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="17540" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
   </bookViews>

--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E048DD-7E5B-DA40-92D6-B15E25FE406E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9CC0D1-946F-4449-8D9F-09F6D947BC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="17540" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Version</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Rank(branch coverage)</t>
+  </si>
+  <si>
+    <t>Spearman:</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.33541570584042596</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -461,7 +464,7 @@
         <v>3.1</v>
       </c>
       <c r="C3">
-        <v>241.5</v>
+        <v>0.84562623320492347</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -469,7 +472,7 @@
         <v>3.2</v>
       </c>
       <c r="C4">
-        <v>489</v>
+        <v>0.79218833416570511</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -477,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>743.5</v>
+        <v>0.4942058623040218</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -485,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>770</v>
+        <v>0.10063399416322834</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -493,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1270</v>
+        <v>0.63622482367483457</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -504,7 +507,7 @@
         <v>0.77</v>
       </c>
       <c r="C8">
-        <v>1423</v>
+        <v>0.12829676875423837</v>
       </c>
       <c r="D8">
         <f>_xlfn.RANK.AVG(B8,$B$8:$B$12,1)</f>
@@ -512,11 +515,11 @@
       </c>
       <c r="E8">
         <f>_xlfn.RANK.AVG(C8,C8:C12,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f>(D8-E8)^2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -527,7 +530,7 @@
         <v>0.78</v>
       </c>
       <c r="C9">
-        <v>1573.5</v>
+        <v>0.26225664126376846</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D12" si="0">_xlfn.RANK.AVG(B9,$B$8:$B$12,1)</f>
@@ -535,11 +538,11 @@
       </c>
       <c r="E9">
         <f>_xlfn.RANK.AVG(C9,$C$8:$C$12,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F12" si="1">(D9-E9)^2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -550,7 +553,7 @@
         <v>0.81</v>
       </c>
       <c r="C10">
-        <v>1849.5</v>
+        <v>7.4996250187490621E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -573,7 +576,7 @@
         <v>0.81</v>
       </c>
       <c r="C11">
-        <v>1861.5</v>
+        <v>2.9860105406172083E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -581,11 +584,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -596,7 +599,7 @@
         <v>0.82</v>
       </c>
       <c r="C12">
-        <v>1991.5</v>
+        <v>7.4055423078632054E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -604,29 +607,27 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C13">
-        <v>2206.5</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="F13">
         <f>SUM(F8:F12)</f>
-        <v>0.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
       <c r="F14">
         <f>1-((6*F13)/(125-5))</f>
-        <v>0.97499999999999998</v>
+        <v>-0.67500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9CC0D1-946F-4449-8D9F-09F6D947BC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBBA45-86AE-744C-9E3B-4C96B3E9DCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="17540" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$1:$A$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$B$1:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,6 +124,2096 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation between branch coverage and defect density </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12829676875423837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26225664126376846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4996250187490621E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9860105406172083E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4055423078632054E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65F4-8640-A0B3-DC90FE9539E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535276336"/>
+        <c:axId val="535673536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535276336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Branch coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535673536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535673536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>defect density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535276336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation between branch coverage and defect density </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12829676875423837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26225664126376846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4996250187490621E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9860105406172083E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4055423078632054E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-782D-E04C-8C80-2B8BD44F77AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535276336"/>
+        <c:axId val="535673536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535276336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Branch coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535673536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535673536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>defect density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535276336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BA1036-A0AF-A844-B91B-D0EB8CF679B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4B2D43-3DE5-7B47-AF42-DFF3D217195B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +2516,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,5 +2727,65 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C574250-EB9B-5E48-9A4D-0DE7A2EA4BFF}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0.77</v>
+      </c>
+      <c r="B1">
+        <v>0.12829676875423837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.78</v>
+      </c>
+      <c r="B2">
+        <v>0.26225664126376846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.81</v>
+      </c>
+      <c r="B3">
+        <v>7.4996250187490621E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.81</v>
+      </c>
+      <c r="B4">
+        <v>2.9860105406172083E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.82</v>
+      </c>
+      <c r="B5">
+        <v>7.4055423078632054E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBBA45-86AE-744C-9E3B-4C96B3E9DCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D1DA54-0837-7E4A-A971-11D858B5E509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="17540" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$1:$A$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$B$1:$B$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,12 +39,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Code churn</t>
-  </si>
-  <si>
-    <t>Rank (code churn)</t>
-  </si>
-  <si>
     <t>Square of difference</t>
   </si>
   <si>
@@ -68,6 +58,12 @@
   </si>
   <si>
     <t>Spearman:</t>
+  </si>
+  <si>
+    <t>Defect Density</t>
+  </si>
+  <si>
+    <t>Rank (defect density)</t>
   </si>
 </sst>
 </file>
@@ -2516,12 +2512,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
@@ -2531,19 +2528,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,7 +2569,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0.4942058623040218</v>
@@ -2580,7 +2577,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0.10063399416322834</v>
@@ -2588,7 +2585,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0.63622482367483457</v>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <f>1-((6*F13)/(125-5))</f>

--- a/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
+++ b/Apache Commons Collection/Correlation analysis/correlation between metric 2 and 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhannitasarcar/Documents/GitHub/SOEN6611/SOEN6611_TeamS/Apache Commons Collection/Correlation analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D1DA54-0837-7E4A-A971-11D858B5E509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F4E2B-C098-7148-846D-8C7573F10C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="17540" xr2:uid="{253F97D9-0A39-5A4C-A0C4-3A3801258A91}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$1:$A$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1:$B$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$1:$A$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$1:$B$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$1:$A$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$1:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -201,10 +209,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -275,7 +281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65F4-8640-A0B3-DC90FE9539E7}"/>
+              <c16:uniqueId val="{00000000-69F4-C44D-8E7F-6ECCFF5AA56A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -648,10 +654,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2132,23 +2136,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BA1036-A0AF-A844-B91B-D0EB8CF679B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A33D04-BA9A-0F4F-9CDB-1FDC8B3035FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2516,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2724,6 +2728,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
